--- a/public/ReportTech.xlsx
+++ b/public/ReportTech.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="886" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pág.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,16 +21,19 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Pág.1'!$A$1:$AJ$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Pág.2'!$A$1:$AQ$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Pág.3'!$A$1:$AO$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Pág.3'!$A$1:$AO$75</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -714,16 +717,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>222480</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:colOff>220680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -738,8 +741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8138880" y="1440"/>
-          <a:ext cx="1371600" cy="352440"/>
+          <a:off x="8165880" y="1440"/>
+          <a:ext cx="1371240" cy="352080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,16 +756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>213840</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>134640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -777,8 +780,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="213840" y="0"/>
-          <a:ext cx="1600200" cy="371520"/>
+          <a:off x="240840" y="0"/>
+          <a:ext cx="1599840" cy="371160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,15 +801,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>31320</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -821,8 +824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9315000" y="1080"/>
-          <a:ext cx="1024560" cy="351720"/>
+          <a:off x="9342000" y="1080"/>
+          <a:ext cx="1024200" cy="351360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,15 +840,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>184320</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -860,8 +863,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="184320" y="360"/>
-          <a:ext cx="1312920" cy="351720"/>
+          <a:off x="211320" y="360"/>
+          <a:ext cx="1312560" cy="351360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,13 +884,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>40680</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
@@ -904,8 +907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8727480" y="1080"/>
-          <a:ext cx="1091160" cy="352080"/>
+          <a:off x="8754480" y="1080"/>
+          <a:ext cx="1090800" cy="352080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -920,13 +923,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>239760</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
@@ -943,7 +946,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="212760" y="1080"/>
+          <a:off x="239760" y="1080"/>
           <a:ext cx="1313280" cy="352080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -966,8 +969,8 @@
   </sheetPr>
   <dimension ref="1:67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S50" activeCellId="0" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -43501,8 +43504,8 @@
   </sheetPr>
   <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -44405,7 +44408,7 @@
       <c r="AO20" s="54"/>
       <c r="AP20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="100.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="115" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -45157,7 +45160,7 @@
       <c r="AO37" s="4"/>
       <c r="AP37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="68.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="101.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -45909,7 +45912,7 @@
       <c r="AO54" s="4"/>
       <c r="AP54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="112.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
